--- a/data/trans_camb/P14B24_2016_2023-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14B24_2016_2023-Edad-trans_camb.xlsx
@@ -570,7 +570,7 @@
         <v>1.458201432856193</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.771579582700563</v>
+        <v>1.771579582700562</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.616289611545525</v>
+        <v>0.6577649323941415</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.14042549380311</v>
+        <v>-1.157603068897991</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3168804856294033</v>
+        <v>0.1566235028949679</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.536850380673855</v>
+        <v>5.465673235463196</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.129292097056051</v>
+        <v>5.289687638983029</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.065360509050037</v>
+        <v>3.860570439527502</v>
       </c>
     </row>
     <row r="7">
@@ -635,10 +635,10 @@
       </c>
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="n">
-        <v>-0.5337990014846751</v>
+        <v>-0.5430765163012103</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1165127086142032</v>
+        <v>-0.08062166533298447</v>
       </c>
     </row>
     <row r="9">
@@ -650,10 +650,10 @@
       </c>
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="n">
-        <v>4.847446825267006</v>
+        <v>4.008244385394505</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>7.200965085445995</v>
+        <v>7.319336447265145</v>
       </c>
     </row>
     <row r="10">
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8880280864465325</v>
+        <v>0.8880280864465326</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.830690523882834</v>
+        <v>2.830690523882833</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>1.901437526427126</v>
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.06607770066866656</v>
+        <v>-0.1423196161413499</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9516443771948973</v>
+        <v>1.035780612512796</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6866045739790227</v>
+        <v>0.8265614038553764</v>
       </c>
     </row>
     <row r="12">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.782543035755012</v>
+        <v>2.532278769748185</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.059222236198776</v>
+        <v>5.265355833577678</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.22080584314413</v>
+        <v>3.335567627445136</v>
       </c>
     </row>
     <row r="13">
@@ -722,7 +722,7 @@
         <v>2.725313029730428</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>2.62961426266785</v>
+        <v>2.629614262667849</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>2.746194873537544</v>
@@ -735,12 +735,14 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr"/>
+      <c r="C14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="D14" s="6" t="n">
-        <v>0.3802778812975106</v>
+        <v>0.2980908837803051</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.443116368848235</v>
+        <v>0.5179607054962662</v>
       </c>
     </row>
     <row r="15">
@@ -752,10 +754,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>9.368414902403082</v>
+        <v>8.356496218205832</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8.042961618142835</v>
+        <v>8.082222290423021</v>
       </c>
     </row>
     <row r="16">
@@ -773,7 +775,7 @@
         <v>2.187521134831334</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.5554557319591223</v>
+        <v>0.555455731959123</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>1.378218814281318</v>
@@ -787,13 +789,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6462060285926201</v>
+        <v>0.8177937099534854</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.226962855894226</v>
+        <v>-1.500945636199996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2009772700021419</v>
+        <v>0.1834163425164476</v>
       </c>
     </row>
     <row r="18">
@@ -804,13 +806,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.252076621328749</v>
+        <v>4.274567440471236</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.273954312989759</v>
+        <v>2.213901868885168</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.654505194402502</v>
+        <v>2.690114565549223</v>
       </c>
     </row>
     <row r="19">
@@ -824,7 +826,7 @@
         <v>2.546981277093859</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.1796086683558449</v>
+        <v>0.1796086683558452</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.6998677782286625</v>
@@ -838,13 +840,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2711450278391473</v>
+        <v>0.3754731317751184</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3142496986510336</v>
+        <v>-0.3620425921595473</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.05162160137825549</v>
+        <v>0.03522748872270125</v>
       </c>
     </row>
     <row r="21">
@@ -855,13 +857,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>9.961559140635448</v>
+        <v>8.385498485414354</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.004845725612631</v>
+        <v>1.011575173817333</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.823961333788364</v>
+        <v>1.78992191438245</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +884,7 @@
         <v>2.050314298622898</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.596345462478927</v>
+        <v>1.596345462478928</v>
       </c>
     </row>
     <row r="23">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6764867440467902</v>
+        <v>-0.7106137923814601</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.168793067622133</v>
+        <v>-0.2246384098593955</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02183549141989858</v>
+        <v>0.0530299223910795</v>
       </c>
     </row>
     <row r="24">
@@ -910,13 +912,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.848266112602966</v>
+        <v>2.958004269634794</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.198929994473122</v>
+        <v>4.291196870350406</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.078711926871692</v>
+        <v>3.019253968782207</v>
       </c>
     </row>
     <row r="25">
@@ -933,7 +935,7 @@
         <v>0.4140259795107056</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4438736667102681</v>
+        <v>0.4438736667102683</v>
       </c>
     </row>
     <row r="26">
@@ -944,13 +946,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2444386454560575</v>
+        <v>-0.2886406156280353</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.0370899528277703</v>
+        <v>-0.03878204054406737</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.004382016853528807</v>
+        <v>-0.002685900687147704</v>
       </c>
     </row>
     <row r="27">
@@ -961,13 +963,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.945922913332038</v>
+        <v>1.988770081897131</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.126668215079579</v>
+        <v>1.224549103552576</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.119934005228173</v>
+        <v>1.0190364959181</v>
       </c>
     </row>
     <row r="28">
@@ -982,7 +984,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>1.993899871153739</v>
+        <v>1.99389987115374</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>3.576159954942511</v>
@@ -999,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.2164237432230266</v>
+        <v>-0.003506917649017455</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6514060687588226</v>
+        <v>0.7764853442045072</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.010638303112603</v>
+        <v>1.123600870318977</v>
       </c>
     </row>
     <row r="30">
@@ -1016,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.767414087094127</v>
+        <v>3.849144253060616</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.178364245021157</v>
+        <v>6.50275413306218</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.73580840202722</v>
+        <v>4.444713045675591</v>
       </c>
     </row>
     <row r="31">
@@ -1050,13 +1052,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1128369922098966</v>
+        <v>-0.08432500518066006</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.09094226715005704</v>
+        <v>0.095619827144792</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2005705046936546</v>
+        <v>0.203034355197765</v>
       </c>
     </row>
     <row r="33">
@@ -1067,13 +1069,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>4.402821215289305</v>
+        <v>4.288888400233769</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.693517144770068</v>
+        <v>1.810287325296208</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.743437182418347</v>
+        <v>1.602125211455736</v>
       </c>
     </row>
     <row r="34">
@@ -1091,10 +1093,10 @@
         <v>0.9082706085529373</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>1.226963043694218</v>
+        <v>1.226963043694217</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1.009161070290246</v>
+        <v>1.009161070290247</v>
       </c>
     </row>
     <row r="35">
@@ -1105,13 +1107,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.5693140457585766</v>
+        <v>-0.7137865882966037</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.258986201891434</v>
+        <v>-2.043964043009724</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.9295378539150553</v>
+        <v>-0.8796413724749935</v>
       </c>
     </row>
     <row r="36">
@@ -1122,13 +1124,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.340553150283665</v>
+        <v>2.213934531481324</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.225806607961361</v>
+        <v>4.445774902685446</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.750476373631232</v>
+        <v>2.738580424443315</v>
       </c>
     </row>
     <row r="37">
@@ -1142,10 +1144,10 @@
         <v>1.061289192097158</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.1919030341887245</v>
+        <v>0.1919030341887243</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.2657543012728995</v>
+        <v>0.2657543012728996</v>
       </c>
     </row>
     <row r="38">
@@ -1156,13 +1158,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4416493188321326</v>
+        <v>-0.5388807418972835</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2771205655656914</v>
+        <v>-0.2450028058775463</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1902663907044517</v>
+        <v>-0.1803543154032249</v>
       </c>
     </row>
     <row r="39">
@@ -1173,13 +1175,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>9.230292226302893</v>
+        <v>8.15378033230451</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.9866953634424175</v>
+        <v>0.9643522484428134</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.015712227950205</v>
+        <v>0.988922562233973</v>
       </c>
     </row>
     <row r="40">
@@ -1194,10 +1196,10 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>2.013936063364021</v>
+        <v>2.01393606336402</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>0.3972101759922117</v>
+        <v>0.3972101759922131</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>0.9894076941883899</v>
@@ -1211,13 +1213,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.008017883161386796</v>
+        <v>-0.1279452350507662</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.31939071433054</v>
+        <v>-3.830255479504253</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.537407850118478</v>
+        <v>-1.4924772268379</v>
       </c>
     </row>
     <row r="42">
@@ -1228,13 +1230,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.475905082502586</v>
+        <v>3.990444502877973</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.595594567515854</v>
+        <v>3.317564976744638</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.136955460795374</v>
+        <v>3.152001664839124</v>
       </c>
     </row>
     <row r="43">
@@ -1248,7 +1250,7 @@
         <v>1.464159559833942</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.05558038464036062</v>
+        <v>0.05558038464036081</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>0.2023457788650497</v>
@@ -1262,13 +1264,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2606132843462342</v>
+        <v>-0.2323306093377802</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3483381550645143</v>
+        <v>-0.3973747114933248</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2228937945320348</v>
+        <v>-0.2515257778645954</v>
       </c>
     </row>
     <row r="45">
@@ -1279,13 +1281,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>9.261723160621573</v>
+        <v>6.82350985305195</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7068399468170761</v>
+        <v>0.6642469998757337</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.8761835042478296</v>
+        <v>0.8669805634802765</v>
       </c>
     </row>
     <row r="46">
@@ -1303,7 +1305,7 @@
         <v>1.656612043397445</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>2.020932782145964</v>
+        <v>2.020932782145966</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>1.853121729338093</v>
@@ -1317,13 +1319,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.9997744736090648</v>
+        <v>1.062828893737267</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.045368145225067</v>
+        <v>1.04585926254388</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1.252538083142873</v>
+        <v>1.246953730980338</v>
       </c>
     </row>
     <row r="48">
@@ -1334,13 +1336,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.393654663125498</v>
+        <v>2.441641161343873</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.969458546107831</v>
+        <v>2.956215918022722</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.437722428165521</v>
+        <v>2.397294070312076</v>
       </c>
     </row>
     <row r="49">
@@ -1354,7 +1356,7 @@
         <v>1.514476788658963</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0.4882712010400481</v>
+        <v>0.4882712010400485</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>0.6994071089582349</v>
@@ -1368,13 +1370,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.7047004713261332</v>
+        <v>0.7700050377806782</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.2374051342264243</v>
+        <v>0.2005138501873275</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.4159493725174828</v>
+        <v>0.4014702348707492</v>
       </c>
     </row>
     <row r="51">
@@ -1385,13 +1387,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>2.705500004549214</v>
+        <v>2.725426830600561</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.8593647098175292</v>
+        <v>0.803388056458995</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.014893132337539</v>
+        <v>0.9895492975536075</v>
       </c>
     </row>
     <row r="52">
